--- a/Data/g9.1.xlsx
+++ b/Data/g9.1.xlsx
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>95.09999999999999</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +407,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>100.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="4">
@@ -427,7 +427,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>99.90000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -447,7 +447,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>92.7</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>87.3</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="7">
@@ -487,7 +487,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>92.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>93.59999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
@@ -527,7 +527,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>97.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="10">
@@ -547,7 +547,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>98.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11">
@@ -567,7 +567,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>95.40000000000001</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="12">
@@ -587,7 +587,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>93.01111111111111</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="13">
@@ -607,7 +607,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>99.82222222222222</v>
+        <v>5.122222222222223</v>
       </c>
     </row>
     <row r="14">
@@ -627,7 +627,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="D14">
-        <v>99.03333333333333</v>
+        <v>0.4111111111111111</v>
       </c>
     </row>
     <row r="15">
@@ -647,7 +647,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>89.73333333333333</v>
+        <v>-10.13333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -667,7 +667,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>84.51111111111111</v>
+        <v>-5.233333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="D17">
-        <v>87.17777777777778</v>
+        <v>1.077777777777778</v>
       </c>
     </row>
     <row r="18">
@@ -707,7 +707,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>87.40000000000001</v>
+        <v>-0.4555555555555555</v>
       </c>
     </row>
     <row r="19">
@@ -727,7 +727,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>90.12222222222222</v>
+        <v>1.311111111111111</v>
       </c>
     </row>
     <row r="20">
@@ -747,7 +747,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="D20">
-        <v>91.34444444444445</v>
+        <v>2.855555555555556</v>
       </c>
     </row>
     <row r="21">
@@ -767,7 +767,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D21">
-        <v>83.75555555555556</v>
+        <v>-8.377777777777778</v>
       </c>
     </row>
     <row r="22">
@@ -787,7 +787,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="D22">
-        <v>97.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="23">
@@ -807,7 +807,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>100.3</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="24">
@@ -827,7 +827,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="D24">
-        <v>99.59999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
@@ -847,7 +847,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>90.09999999999999</v>
+        <v>-10.6</v>
       </c>
     </row>
     <row r="26">
@@ -867,7 +867,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>88.09999999999999</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="27">
@@ -887,7 +887,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>81.90000000000001</v>
+        <v>-9.5</v>
       </c>
     </row>
     <row r="28">
@@ -907,7 +907,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>82.59999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29">
@@ -927,7 +927,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="D29">
-        <v>83.40000000000001</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="30">
@@ -947,7 +947,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D30">
-        <v>81.90000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Índice de volume de vendas no comércio varejista - Índice base fixa com ajuste sazonal (2014=100)</t>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="D31">
-        <v>72.5</v>
+        <v>-11.2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g9.1.xlsx
+++ b/Data/g9.1.xlsx
@@ -1,46 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,14 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -392,11 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>5.1</v>
+          <t>01/12/2010</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10.09174311926606</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +488,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>3.9</v>
+          <t>01/12/2011</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5.952380952380953</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +508,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.3</v>
+          <t>01/12/2012</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6.853932584269651</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +528,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>-7.2</v>
+          <t>01/12/2013</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5.467928496319674</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +548,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>-4.9</v>
+          <t>01/12/2014</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.3988035892322994</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +568,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>4</v>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-7.207207207207212</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +588,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>0.7</v>
+          <t>01/12/2016</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-5.82524271844661</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>2.6</v>
+          <t>01/12/2017</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5.612829324169533</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +628,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>1.3</v>
+          <t>01/12/2018</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1.518438177874182</v>
       </c>
     </row>
     <row r="11">
@@ -572,17 +648,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>-2.9</v>
+          <t>01/12/2019</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4.380341880341887</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -592,17 +668,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>5.6</v>
+          <t>01/12/2020</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5117707267144223</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -612,11 +688,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>5.122222222222223</v>
+          <t>01/12/2021</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-2.851323828920571</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>0.4111111111111111</v>
+          <t>01/12/2010</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10.61906913691821</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>-10.13333333333333</v>
+          <t>01/12/2011</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5.47385620915033</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>-5.233333333333333</v>
+          <t>01/12/2012</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8.068680609346778</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>1.077777777777778</v>
+          <t>01/12/2013</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>7.322900489786166</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>-0.4555555555555555</v>
+          <t>01/12/2014</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.7902938557435513</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>1.311111111111111</v>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>-9.39077751598788</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>2.855555555555556</v>
+          <t>01/12/2016</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>-5.819712729073789</v>
       </c>
     </row>
     <row r="21">
@@ -772,17 +848,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>-8.377777777777778</v>
+          <t>01/12/2017</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3.15540362871416</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -792,17 +868,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>2.3</v>
+          <t>01/12/2018</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2549069589599773</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -812,17 +888,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>-0.2</v>
+          <t>01/12/2019</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3.114670734808023</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -832,17 +908,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>0.5</v>
+          <t>01/12/2020</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1.356182961410446</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -852,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>-10.6</v>
+          <t>01/12/2021</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>-8.307991728500197</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>-1.4</v>
+          <t>01/12/2010</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>12.48527679623086</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>-9.5</v>
+          <t>01/12/2011</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>-3.141361256544506</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>0.6</v>
+          <t>01/12/2012</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5.081081081081074</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>-1.8</v>
+          <t>01/12/2013</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3.189300411522633</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>0.2</v>
+          <t>01/12/2014</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.6979062811565351</v>
       </c>
     </row>
     <row r="31">
@@ -972,14 +1048,134 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>-11.2</v>
+          <t>01/12/2015</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>-9.538152610441763</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>01/12/2016</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>-2.219755826859049</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>01/12/2017</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>-7.037457434733241</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>01/12/2018</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8547008547008517</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>01/12/2019</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9685230024213176</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>01/12/2020</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>-1.798561151079137</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Índice de volume de vendas no comércio varejista - Variação mensal (base: igual mês do ano anterior)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>01/12/2021</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>-11.47741147741148</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/g9.1.xlsx
+++ b/Data/g9.1.xlsx
@@ -468,11 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.09174311926606</v>
+        <v>-9.166666666666668</v>
       </c>
     </row>
     <row r="3">
@@ -488,11 +488,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.952380952380953</v>
+        <v>-5.61797752808989</v>
       </c>
     </row>
     <row r="4">
@@ -508,11 +508,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.853932584269651</v>
+        <v>-6.414300736067291</v>
       </c>
     </row>
     <row r="5">
@@ -528,11 +528,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.467928496319674</v>
+        <v>-5.184446660019947</v>
       </c>
     </row>
     <row r="6">
@@ -548,11 +548,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.3988035892322994</v>
+        <v>0.4004004004003914</v>
       </c>
     </row>
     <row r="7">
@@ -568,11 +568,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-7.207207207207212</v>
+        <v>7.766990291262132</v>
       </c>
     </row>
     <row r="8">
@@ -588,11 +588,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-5.82524271844661</v>
+        <v>6.185567010309279</v>
       </c>
     </row>
     <row r="9">
@@ -608,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.612829324169533</v>
+        <v>-5.314533622559658</v>
       </c>
     </row>
     <row r="10">
@@ -628,11 +628,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.518438177874182</v>
+        <v>-1.49572649572649</v>
       </c>
     </row>
     <row r="11">
@@ -648,11 +648,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.380341880341887</v>
+        <v>-4.196519959058353</v>
       </c>
     </row>
     <row r="12">
@@ -668,11 +668,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5117707267144223</v>
+        <v>-0.5091649694501044</v>
       </c>
     </row>
     <row r="13">
@@ -688,11 +688,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-2.851323828920571</v>
+        <v>2.9350104821803</v>
       </c>
     </row>
     <row r="14">
@@ -708,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10.61906913691821</v>
+        <v>-9.599673202614378</v>
       </c>
     </row>
     <row r="15">
@@ -728,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5.47385620915033</v>
+        <v>-5.189775367931837</v>
       </c>
     </row>
     <row r="16">
@@ -748,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8.068680609346778</v>
+        <v>-7.466252538525875</v>
       </c>
     </row>
     <row r="17">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7.322900489786166</v>
+        <v>-6.823241317898477</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.7902938557435513</v>
+        <v>0.7965892516548889</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-9.39077751598788</v>
+        <v>10.36404160475484</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-5.819712729073789</v>
+        <v>6.179332106231916</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3.15540362871416</v>
+        <v>-3.05888350751975</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.2549069589599773</v>
+        <v>-0.2542588354945363</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3.114670734808023</v>
+        <v>-3.020589323141409</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.356182961410446</v>
+        <v>-1.338036735190373</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-8.307991728500197</v>
+        <v>9.060758821968706</v>
       </c>
     </row>
     <row r="26">
@@ -948,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12.48527679623086</v>
+        <v>-11.09947643979057</v>
       </c>
     </row>
     <row r="27">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-3.141361256544506</v>
+        <v>3.243243243243232</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5.081081081081074</v>
+        <v>-4.835390946502061</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.189300411522633</v>
+        <v>-3.090727816550343</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-0.6979062811565351</v>
+        <v>0.7028112449799284</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-9.538152610441763</v>
+        <v>10.54384017758048</v>
       </c>
     </row>
     <row r="32">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-2.219755826859049</v>
+        <v>2.270147559591384</v>
       </c>
     </row>
     <row r="33">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-7.037457434733241</v>
+        <v>7.570207570207566</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8547008547008517</v>
+        <v>-0.8474576271186307</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9685230024213176</v>
+        <v>-0.9592326139088891</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-1.798561151079137</v>
+        <v>1.831501831501825</v>
       </c>
     </row>
     <row r="37">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-11.47741147741148</v>
+        <v>12.96551724137931</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g9.1.xlsx
+++ b/Data/g9.1.xlsx
@@ -708,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-9.599673202614378</v>
+        <v>10.61906913691821</v>
       </c>
     </row>
     <row r="15">
@@ -728,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-5.189775367931837</v>
+        <v>5.47385620915033</v>
       </c>
     </row>
     <row r="16">
@@ -748,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-7.466252538525875</v>
+        <v>8.068680609346778</v>
       </c>
     </row>
     <row r="17">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-6.823241317898477</v>
+        <v>7.322900489786166</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.7965892516548889</v>
+        <v>-0.7902938557435513</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10.36404160475484</v>
+        <v>-9.39077751598788</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6.179332106231916</v>
+        <v>-5.819712729073789</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-3.05888350751975</v>
+        <v>3.15540362871416</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.2542588354945363</v>
+        <v>0.2549069589599773</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-3.020589323141409</v>
+        <v>3.114670734808023</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-1.338036735190373</v>
+        <v>1.356182961410446</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9.060758821968706</v>
+        <v>-8.307991728500197</v>
       </c>
     </row>
     <row r="26">
